--- a/src/game_data.xlsx
+++ b/src/game_data.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Battle-for-Cyber-City\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80EF6AE-524B-4545-A8F3-003A2481B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ability" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles" sheetId="2" r:id="rId2"/>
+    <sheet name="Events" sheetId="3" r:id="rId3"/>
+    <sheet name="Districts" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +27,82 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Man in the Middle (Steal Data)</t>
+  </si>
+  <si>
+    <t>Malware (Steal Data)</t>
+  </si>
+  <si>
+    <t>DDoS (Control)</t>
+  </si>
+  <si>
+    <t>Phishing (Steal Data)</t>
+  </si>
+  <si>
+    <t>Trojan (Control)</t>
+  </si>
+  <si>
+    <t>Password Attack (Steal Data)</t>
+  </si>
+  <si>
+    <t>Ransomware (Control)</t>
+  </si>
+  <si>
+    <t>Data Encryption</t>
+  </si>
+  <si>
+    <t>Anti-Malware</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>Trust Zones</t>
+  </si>
+  <si>
+    <t>Honey Pot</t>
+  </si>
+  <si>
+    <t>Multifactor Authentication</t>
+  </si>
+  <si>
+    <t>Audit Devices &amp; Assets</t>
+  </si>
+  <si>
+    <t>Hacker (0), Defender (1)</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Hacker</t>
+  </si>
+  <si>
+    <t>Matchup</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +414,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>600</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>600</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>600</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>400</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>500</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8038A098-FDF2-4652-89AC-5A7E19F238CB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D77A0B-06F2-4DD7-9F2A-6DD2A88B2781}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C725F571-59C0-43EB-9D77-39359015751B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
